--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hras-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hras-Insr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.980814333333332</v>
+        <v>8.956950000000001</v>
       </c>
       <c r="H2">
-        <v>20.942443</v>
+        <v>26.87085</v>
       </c>
       <c r="I2">
-        <v>0.2573350203399358</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="J2">
-        <v>0.2573350203399357</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.61877133333333</v>
+        <v>17.10933733333333</v>
       </c>
       <c r="N2">
-        <v>40.856314</v>
+        <v>51.328012</v>
       </c>
       <c r="O2">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="P2">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="Q2">
-        <v>95.07011412612242</v>
+        <v>153.2474790278</v>
       </c>
       <c r="R2">
-        <v>855.6310271351018</v>
+        <v>1379.2273112502</v>
       </c>
       <c r="S2">
-        <v>0.08399561728622544</v>
+        <v>0.123166405281023</v>
       </c>
       <c r="T2">
-        <v>0.08399561728622543</v>
+        <v>0.123166405281023</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.980814333333332</v>
+        <v>8.956950000000001</v>
       </c>
       <c r="H3">
-        <v>20.942443</v>
+        <v>26.87085</v>
       </c>
       <c r="I3">
-        <v>0.2573350203399358</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="J3">
-        <v>0.2573350203399357</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>32.782459</v>
       </c>
       <c r="O3">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="P3">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="Q3">
-        <v>76.28275322303743</v>
+        <v>97.87694871335002</v>
       </c>
       <c r="R3">
-        <v>686.544779007337</v>
+        <v>880.8925384201501</v>
       </c>
       <c r="S3">
-        <v>0.06739675243012322</v>
+        <v>0.07866460191956237</v>
       </c>
       <c r="T3">
-        <v>0.06739675243012321</v>
+        <v>0.07866460191956236</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.980814333333332</v>
+        <v>8.956950000000001</v>
       </c>
       <c r="H4">
-        <v>20.942443</v>
+        <v>26.87085</v>
       </c>
       <c r="I4">
-        <v>0.2573350203399358</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="J4">
-        <v>0.2573350203399357</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.684515333333332</v>
+        <v>11.616679</v>
       </c>
       <c r="N4">
-        <v>29.053546</v>
+        <v>34.850037</v>
       </c>
       <c r="O4">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="P4">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="Q4">
-        <v>67.60580345031975</v>
+        <v>104.05001296905</v>
       </c>
       <c r="R4">
-        <v>608.4522310528779</v>
+        <v>936.4501167214501</v>
       </c>
       <c r="S4">
-        <v>0.0597305603883832</v>
+        <v>0.08362595031345937</v>
       </c>
       <c r="T4">
-        <v>0.05973056038838318</v>
+        <v>0.08362595031345937</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.980814333333332</v>
+        <v>8.956950000000001</v>
       </c>
       <c r="H5">
-        <v>20.942443</v>
+        <v>26.87085</v>
       </c>
       <c r="I5">
-        <v>0.2573350203399358</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="J5">
-        <v>0.2573350203399357</v>
+        <v>0.3465211830970586</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.492675333333334</v>
+        <v>8.482576333333332</v>
       </c>
       <c r="N5">
-        <v>22.478026</v>
+        <v>25.447729</v>
       </c>
       <c r="O5">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="P5">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="Q5">
-        <v>52.30497536194644</v>
+        <v>75.97801208884999</v>
       </c>
       <c r="R5">
-        <v>470.7447782575179</v>
+        <v>683.80210879965</v>
       </c>
       <c r="S5">
-        <v>0.04621209023520392</v>
+        <v>0.06106422558301384</v>
       </c>
       <c r="T5">
-        <v>0.0462120902352039</v>
+        <v>0.06106422558301385</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>19.126085</v>
       </c>
       <c r="I6">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="J6">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.61877133333333</v>
+        <v>17.10933733333333</v>
       </c>
       <c r="N6">
-        <v>40.856314</v>
+        <v>51.328012</v>
       </c>
       <c r="O6">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="P6">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="Q6">
-        <v>86.82459270563221</v>
+        <v>109.0782133770022</v>
       </c>
       <c r="R6">
-        <v>781.4213343506899</v>
+        <v>981.70392039302</v>
       </c>
       <c r="S6">
-        <v>0.07671059750974694</v>
+        <v>0.08766716112624998</v>
       </c>
       <c r="T6">
-        <v>0.07671059750974694</v>
+        <v>0.08766716112624998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>19.126085</v>
       </c>
       <c r="I7">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="J7">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>32.782459</v>
       </c>
       <c r="O7">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="P7">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="Q7">
         <v>69.66667748255723</v>
@@ -883,10 +883,10 @@
         <v>627.000097343015</v>
       </c>
       <c r="S7">
-        <v>0.06155136798999493</v>
+        <v>0.05599174803940749</v>
       </c>
       <c r="T7">
-        <v>0.06155136798999492</v>
+        <v>0.05599174803940749</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>19.126085</v>
       </c>
       <c r="I8">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="J8">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.684515333333332</v>
+        <v>11.616679</v>
       </c>
       <c r="N8">
-        <v>29.053546</v>
+        <v>34.850037</v>
       </c>
       <c r="O8">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="P8">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="Q8">
-        <v>61.74228781637888</v>
+        <v>74.06052999057167</v>
       </c>
       <c r="R8">
-        <v>555.68059034741</v>
+        <v>666.544769915145</v>
       </c>
       <c r="S8">
-        <v>0.05455007207544269</v>
+        <v>0.05952312762346559</v>
       </c>
       <c r="T8">
-        <v>0.05455007207544268</v>
+        <v>0.05952312762346559</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>19.126085</v>
       </c>
       <c r="I9">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="J9">
-        <v>0.2350161092714131</v>
+        <v>0.2466462208011621</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.492675333333334</v>
+        <v>8.482576333333332</v>
       </c>
       <c r="N9">
-        <v>22.478026</v>
+        <v>25.447729</v>
       </c>
       <c r="O9">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="P9">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="Q9">
-        <v>47.76851510091223</v>
+        <v>54.07949199010721</v>
       </c>
       <c r="R9">
-        <v>429.91663590821</v>
+        <v>486.715427910965</v>
       </c>
       <c r="S9">
-        <v>0.04220407169622858</v>
+        <v>0.04346418401203896</v>
       </c>
       <c r="T9">
-        <v>0.04220407169622857</v>
+        <v>0.04346418401203897</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.798032</v>
+        <v>7.505276333333332</v>
       </c>
       <c r="H10">
-        <v>23.394096</v>
+        <v>22.515829</v>
       </c>
       <c r="I10">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="J10">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.61877133333333</v>
+        <v>17.10933733333333</v>
       </c>
       <c r="N10">
-        <v>40.856314</v>
+        <v>51.328012</v>
       </c>
       <c r="O10">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="P10">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="Q10">
-        <v>106.199614658016</v>
+        <v>128.4103045668831</v>
       </c>
       <c r="R10">
-        <v>955.796531922144</v>
+        <v>1155.692741101948</v>
       </c>
       <c r="S10">
-        <v>0.09382866814407555</v>
+        <v>0.1032045402304806</v>
       </c>
       <c r="T10">
-        <v>0.09382866814407552</v>
+        <v>0.1032045402304806</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.798032</v>
+        <v>7.505276333333332</v>
       </c>
       <c r="H11">
-        <v>23.394096</v>
+        <v>22.515829</v>
       </c>
       <c r="I11">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="J11">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>32.782459</v>
       </c>
       <c r="O11">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="P11">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="Q11">
-        <v>85.212888106896</v>
+        <v>82.0138045603901</v>
       </c>
       <c r="R11">
-        <v>766.9159929620641</v>
+        <v>738.124241043511</v>
       </c>
       <c r="S11">
-        <v>0.07528663663730807</v>
+        <v>0.0659152473842077</v>
       </c>
       <c r="T11">
-        <v>0.07528663663730806</v>
+        <v>0.06591524738420769</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.798032</v>
+        <v>7.505276333333332</v>
       </c>
       <c r="H12">
-        <v>23.394096</v>
+        <v>22.515829</v>
       </c>
       <c r="I12">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="J12">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.684515333333332</v>
+        <v>11.616679</v>
       </c>
       <c r="N12">
-        <v>29.053546</v>
+        <v>34.850037</v>
       </c>
       <c r="O12">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="P12">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="Q12">
-        <v>75.52016047382399</v>
+        <v>87.18638597063031</v>
       </c>
       <c r="R12">
-        <v>679.681444264416</v>
+        <v>784.6774737356728</v>
       </c>
       <c r="S12">
-        <v>0.06672299233951044</v>
+        <v>0.07007249853355391</v>
       </c>
       <c r="T12">
-        <v>0.06672299233951043</v>
+        <v>0.07007249853355391</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.798032</v>
+        <v>7.505276333333332</v>
       </c>
       <c r="H13">
-        <v>23.394096</v>
+        <v>22.515829</v>
       </c>
       <c r="I13">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="J13">
-        <v>0.2874602628735535</v>
+        <v>0.2903596910217228</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.492675333333334</v>
+        <v>8.482576333333332</v>
       </c>
       <c r="N13">
-        <v>22.478026</v>
+        <v>25.447729</v>
       </c>
       <c r="O13">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="P13">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="Q13">
-        <v>58.428122014944</v>
+        <v>63.66407940026009</v>
       </c>
       <c r="R13">
-        <v>525.853098134496</v>
+        <v>572.9767146023408</v>
       </c>
       <c r="S13">
-        <v>0.05162196575265948</v>
+        <v>0.05116740487348054</v>
       </c>
       <c r="T13">
-        <v>0.05162196575265946</v>
+        <v>0.05116740487348054</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.973131</v>
+        <v>3.010615333333333</v>
       </c>
       <c r="H14">
-        <v>17.919393</v>
+        <v>9.031846</v>
       </c>
       <c r="I14">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="J14">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.61877133333333</v>
+        <v>17.10933733333333</v>
       </c>
       <c r="N14">
-        <v>40.856314</v>
+        <v>51.328012</v>
       </c>
       <c r="O14">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="P14">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="Q14">
-        <v>81.34670523304466</v>
+        <v>51.50963331890578</v>
       </c>
       <c r="R14">
-        <v>732.1203470974019</v>
+        <v>463.586699870152</v>
       </c>
       <c r="S14">
-        <v>0.0718708164290798</v>
+        <v>0.04139876501382674</v>
       </c>
       <c r="T14">
-        <v>0.0718708164290798</v>
+        <v>0.04139876501382674</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.973131</v>
+        <v>3.010615333333333</v>
       </c>
       <c r="H15">
-        <v>17.919393</v>
+        <v>9.031846</v>
       </c>
       <c r="I15">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="J15">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>32.782459</v>
       </c>
       <c r="O15">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="P15">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="Q15">
-        <v>65.27130736970966</v>
+        <v>32.89845790992378</v>
       </c>
       <c r="R15">
-        <v>587.4417663273871</v>
+        <v>296.086121189314</v>
       </c>
       <c r="S15">
-        <v>0.05766800433545805</v>
+        <v>0.02644079253870986</v>
       </c>
       <c r="T15">
-        <v>0.05766800433545805</v>
+        <v>0.02644079253870985</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.973131</v>
+        <v>3.010615333333333</v>
       </c>
       <c r="H16">
-        <v>17.919393</v>
+        <v>9.031846</v>
       </c>
       <c r="I16">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="J16">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.684515333333332</v>
+        <v>11.616679</v>
       </c>
       <c r="N16">
-        <v>29.053546</v>
+        <v>34.850037</v>
       </c>
       <c r="O16">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="P16">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="Q16">
-        <v>57.84687875750866</v>
+        <v>34.97335191981134</v>
       </c>
       <c r="R16">
-        <v>520.6219088175779</v>
+        <v>314.760167278302</v>
       </c>
       <c r="S16">
-        <v>0.05110843017262462</v>
+        <v>0.02810840389622274</v>
       </c>
       <c r="T16">
-        <v>0.05110843017262461</v>
+        <v>0.02810840389622274</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.973131</v>
+        <v>3.010615333333333</v>
       </c>
       <c r="H17">
-        <v>17.919393</v>
+        <v>9.031846</v>
       </c>
       <c r="I17">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="J17">
-        <v>0.2201886075150976</v>
+        <v>0.1164729050800565</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.492675333333334</v>
+        <v>8.482576333333332</v>
       </c>
       <c r="N17">
-        <v>22.478026</v>
+        <v>25.447729</v>
       </c>
       <c r="O17">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="P17">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="Q17">
-        <v>44.75473130646866</v>
+        <v>25.53777437530378</v>
       </c>
       <c r="R17">
-        <v>402.792581758218</v>
+        <v>229.839969377734</v>
       </c>
       <c r="S17">
-        <v>0.03954135657793514</v>
+        <v>0.02052494363129716</v>
       </c>
       <c r="T17">
-        <v>0.03954135657793512</v>
+        <v>0.02052494363129716</v>
       </c>
     </row>
   </sheetData>
